--- a/jpcore-r4/feature/jurisdiction-mod/CodeSystem-jp-medication-example-routecomment-cs.xlsx
+++ b/jpcore-r4/feature/jurisdiction-mod/CodeSystem-jp-medication-example-routecomment-cs.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JPN</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>
